--- a/activity/RoadBuffer/RoadBuffer.xlsx
+++ b/activity/RoadBuffer/RoadBuffer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\RoadBuffer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14CD143-26CE-4141-AF65-10C2F146142E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1EC1EC-6BC4-4648-B264-8CB8F2E2361E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{012D0033-4953-46FF-8E03-F86034DBFEBC}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="PerfilVial" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PerfilVial!$A$1:$R$25</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -73,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="83">
   <si>
     <t>Separador</t>
   </si>
@@ -319,6 +322,9 @@
   </si>
   <si>
     <t>CalzadaDer</t>
+  </si>
+  <si>
+    <t>Vía férrea</t>
   </si>
 </sst>
 </file>
@@ -390,7 +396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -398,197 +404,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -598,43 +419,31 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -971,1497 +780,1537 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6359057-24D5-44D3-8539-20CB037E059C}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="Q26" sqref="Q26:R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.06640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.06640625" style="1"/>
-    <col min="5" max="5" width="66.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.9296875" style="1" customWidth="1"/>
-    <col min="7" max="18" width="11.9296875" style="22" customWidth="1"/>
-    <col min="19" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="10.19921875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="28.06640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="21" style="11" customWidth="1"/>
+    <col min="4" max="4" width="9.06640625" style="11"/>
+    <col min="5" max="5" width="66.59765625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="11.9296875" style="11" customWidth="1"/>
+    <col min="7" max="18" width="11.9296875" style="12" customWidth="1"/>
+    <col min="19" max="16384" width="9.06640625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
+      <c r="A2" s="11">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="16">
-        <v>2</v>
-      </c>
-      <c r="J2" s="16">
+      <c r="G2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="12">
+        <v>2</v>
+      </c>
+      <c r="J2" s="12">
         <v>3.5</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="12">
         <v>0</v>
       </c>
-      <c r="L2" s="16">
+      <c r="L2" s="12">
         <v>3.5</v>
       </c>
-      <c r="M2" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2" s="16">
-        <v>2</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q2" s="16">
+      <c r="M2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="12">
+        <v>2</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="12">
         <f>SUM(G2:P2)</f>
         <v>11</v>
       </c>
-      <c r="R2" s="17">
+      <c r="R2" s="12">
         <f>Q2/2</f>
         <v>5.5</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="16">
+      <c r="G3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="12">
         <v>6.25</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="12">
         <v>10</v>
       </c>
-      <c r="K3" s="16">
-        <v>2</v>
-      </c>
-      <c r="L3" s="16">
+      <c r="K3" s="12">
+        <v>2</v>
+      </c>
+      <c r="L3" s="12">
         <v>10</v>
       </c>
-      <c r="M3" s="16">
-        <v>2</v>
-      </c>
-      <c r="N3" s="16">
+      <c r="M3" s="12">
+        <v>2</v>
+      </c>
+      <c r="N3" s="12">
         <v>6.25</v>
       </c>
-      <c r="O3" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" s="16">
+      <c r="O3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="12">
         <f>SUM(G3:P3)</f>
         <v>36.5</v>
       </c>
-      <c r="R3" s="17">
+      <c r="R3" s="12">
         <f>Q3/2</f>
         <v>18.25</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="16">
+      <c r="G4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="12">
         <v>4</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="12">
         <v>10</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="12">
         <v>4</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="12">
         <v>10</v>
       </c>
-      <c r="M4" s="16">
-        <v>2</v>
-      </c>
-      <c r="N4" s="16">
+      <c r="M4" s="12">
+        <v>2</v>
+      </c>
+      <c r="N4" s="12">
         <v>4</v>
       </c>
-      <c r="O4" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q4" s="16">
+      <c r="O4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="12">
         <f>SUM(G4:P4)</f>
         <v>34</v>
       </c>
-      <c r="R4" s="17">
+      <c r="R4" s="12">
         <f t="shared" ref="R4:R25" si="0">Q4/2</f>
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="16">
+      <c r="G5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="12">
         <v>2.4</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="12">
         <v>7</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="12">
         <v>1</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="12">
         <v>7</v>
       </c>
-      <c r="M5" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="N5" s="16">
+      <c r="M5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="12">
         <v>12</v>
       </c>
-      <c r="O5" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="16">
+      <c r="O5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="12">
         <f>SUM(G5:P5)</f>
         <v>29.4</v>
       </c>
-      <c r="R5" s="17">
+      <c r="R5" s="12">
         <f t="shared" si="0"/>
         <v>14.7</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="16">
+      <c r="G6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="12">
         <v>2.4</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="12">
         <v>7</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="12">
         <v>1</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="12">
         <v>7</v>
       </c>
-      <c r="M6" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="N6" s="16">
+      <c r="M6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="12">
         <v>12</v>
       </c>
-      <c r="O6" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q6" s="16">
+      <c r="O6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q6" s="12">
         <f t="shared" ref="Q6:Q21" si="1">SUM(G6:P6)</f>
         <v>29.4</v>
       </c>
-      <c r="R6" s="17">
+      <c r="R6" s="12">
         <f t="shared" si="0"/>
         <v>14.7</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
+      <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="16">
+      <c r="G7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="12">
         <v>2.5</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="12">
         <v>7</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="12">
         <v>1</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="12">
         <v>7</v>
       </c>
-      <c r="M7" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="N7" s="16">
+      <c r="M7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="12">
         <v>2.5</v>
       </c>
-      <c r="O7" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q7" s="16">
+      <c r="O7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q7" s="12">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="R7" s="17">
+      <c r="R7" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="2">
+      <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="16">
-        <v>2</v>
-      </c>
-      <c r="J8" s="16">
+      <c r="G8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="12">
+        <v>2</v>
+      </c>
+      <c r="J8" s="12">
         <v>7</v>
       </c>
-      <c r="K8" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="N8" s="16">
-        <v>2</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q8" s="16">
+      <c r="K8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="12">
+        <v>2</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="12">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="12">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="2">
+      <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="16">
+      <c r="G9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="12">
         <v>4.5</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="12">
         <v>6.5</v>
       </c>
-      <c r="K9" s="16">
-        <v>2</v>
-      </c>
-      <c r="L9" s="16">
+      <c r="K9" s="12">
+        <v>2</v>
+      </c>
+      <c r="L9" s="12">
         <v>6.5</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="12">
         <v>4.2</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="12">
         <v>4.3</v>
       </c>
-      <c r="O9" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="P9" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q9" s="16">
+      <c r="O9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q9" s="12">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="R9" s="17">
+      <c r="R9" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="2">
+      <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="16">
+      <c r="G10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="12">
         <v>2.5</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="12">
         <v>7</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="12">
         <v>1</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="12">
         <v>7</v>
       </c>
-      <c r="M10" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="N10" s="16">
+      <c r="M10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" s="12">
         <v>2.5</v>
       </c>
-      <c r="O10" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q10" s="16">
+      <c r="O10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="12">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="R10" s="17">
+      <c r="R10" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="2">
+      <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="16">
+      <c r="G11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="12">
         <v>2.25</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="12">
         <v>3.5</v>
       </c>
-      <c r="K11" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="N11" s="16">
+      <c r="K11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="12">
         <v>1.25</v>
       </c>
-      <c r="O11" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="P11" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q11" s="16">
+      <c r="O11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q11" s="12">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="R11" s="17">
+      <c r="R11" s="12">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="2">
+      <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="16">
+      <c r="G12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="12">
         <v>4.5</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="12">
         <v>3.5</v>
       </c>
-      <c r="K12" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" s="16">
+      <c r="K12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="12">
         <v>3.5</v>
       </c>
-      <c r="M12" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="N12" s="16">
+      <c r="M12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" s="12">
         <v>3</v>
       </c>
-      <c r="O12" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="P12" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q12" s="16">
+      <c r="O12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q12" s="12">
         <f t="shared" si="1"/>
         <v>14.5</v>
       </c>
-      <c r="R12" s="17">
+      <c r="R12" s="12">
         <f t="shared" si="0"/>
         <v>7.25</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="2">
+      <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="16">
-        <v>2</v>
-      </c>
-      <c r="J13" s="16">
+      <c r="G13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="12">
+        <v>2</v>
+      </c>
+      <c r="J13" s="12">
         <v>7</v>
       </c>
-      <c r="K13" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="N13" s="16">
-        <v>2</v>
-      </c>
-      <c r="O13" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="P13" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q13" s="16">
+      <c r="K13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N13" s="12">
+        <v>2</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q13" s="12">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="R13" s="17">
+      <c r="R13" s="12">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="2">
+      <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="16">
-        <v>2</v>
-      </c>
-      <c r="J14" s="16">
+      <c r="G14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="12">
+        <v>2</v>
+      </c>
+      <c r="J14" s="12">
         <v>7</v>
       </c>
-      <c r="K14" s="16">
-        <v>2</v>
-      </c>
-      <c r="L14" s="16">
+      <c r="K14" s="12">
+        <v>2</v>
+      </c>
+      <c r="L14" s="12">
         <v>7</v>
       </c>
-      <c r="M14" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="N14" s="16">
-        <v>2</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="P14" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q14" s="16">
+      <c r="M14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N14" s="12">
+        <v>2</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q14" s="12">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="R14" s="17">
+      <c r="R14" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="2">
+      <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="16">
+      <c r="G15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="12">
         <v>3</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="12">
         <v>6</v>
       </c>
-      <c r="K15" s="16">
-        <v>2</v>
-      </c>
-      <c r="L15" s="16">
+      <c r="K15" s="12">
+        <v>2</v>
+      </c>
+      <c r="L15" s="12">
         <v>6</v>
       </c>
-      <c r="M15" s="16">
-        <v>2</v>
-      </c>
-      <c r="N15" s="16">
+      <c r="M15" s="12">
+        <v>2</v>
+      </c>
+      <c r="N15" s="12">
         <v>3</v>
       </c>
-      <c r="O15" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="P15" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q15" s="16">
+      <c r="O15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q15" s="12">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="R15" s="17">
+      <c r="R15" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="2">
+      <c r="A16" s="11">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="16">
+      <c r="G16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="12">
         <v>3</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="12">
         <v>6</v>
       </c>
-      <c r="K16" s="16">
-        <v>2</v>
-      </c>
-      <c r="L16" s="16">
+      <c r="K16" s="12">
+        <v>2</v>
+      </c>
+      <c r="L16" s="12">
         <v>6</v>
       </c>
-      <c r="M16" s="16">
-        <v>2</v>
-      </c>
-      <c r="N16" s="16">
+      <c r="M16" s="12">
+        <v>2</v>
+      </c>
+      <c r="N16" s="12">
         <v>3</v>
       </c>
-      <c r="O16" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="P16" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q16" s="16">
+      <c r="O16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q16" s="12">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="R16" s="17">
+      <c r="R16" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="2">
+      <c r="A17" s="11">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="16">
+      <c r="G17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="12">
         <v>3</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="12">
         <v>6</v>
       </c>
-      <c r="K17" s="16">
-        <v>2</v>
-      </c>
-      <c r="L17" s="16">
+      <c r="K17" s="12">
+        <v>2</v>
+      </c>
+      <c r="L17" s="12">
         <v>6</v>
       </c>
-      <c r="M17" s="16">
-        <v>2</v>
-      </c>
-      <c r="N17" s="16">
+      <c r="M17" s="12">
+        <v>2</v>
+      </c>
+      <c r="N17" s="12">
         <v>3</v>
       </c>
-      <c r="O17" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="P17" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q17" s="16">
+      <c r="O17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q17" s="12">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="R17" s="17">
+      <c r="R17" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="2">
+      <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="16">
+      <c r="G18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="12">
         <v>4.5</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="12">
         <v>6.5</v>
       </c>
-      <c r="K18" s="16">
-        <v>2</v>
-      </c>
-      <c r="L18" s="16">
+      <c r="K18" s="12">
+        <v>2</v>
+      </c>
+      <c r="L18" s="12">
         <v>6.5</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M18" s="12">
         <v>4.2</v>
       </c>
-      <c r="N18" s="16">
+      <c r="N18" s="12">
         <v>4.3</v>
       </c>
-      <c r="O18" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="P18" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q18" s="16">
+      <c r="O18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q18" s="12">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="R18" s="17">
+      <c r="R18" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="2">
+      <c r="A19" s="11">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" s="16">
+      <c r="G19" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="12">
         <v>2.5</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="12">
         <v>7</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="12">
         <v>1</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L19" s="12">
         <v>7</v>
       </c>
-      <c r="M19" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="N19" s="16">
+      <c r="M19" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" s="12">
         <v>2.5</v>
       </c>
-      <c r="O19" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="P19" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q19" s="16">
+      <c r="O19" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q19" s="12">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="R19" s="17">
+      <c r="R19" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="2">
+      <c r="A20" s="11">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I20" s="16">
+      <c r="G20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="12">
         <v>4</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="12">
         <v>6</v>
       </c>
-      <c r="K20" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="L20" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="M20" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="N20" s="16">
+      <c r="K20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N20" s="12">
         <v>4</v>
       </c>
-      <c r="O20" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="P20" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q20" s="16">
+      <c r="O20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q20" s="12">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="R20" s="17">
+      <c r="R20" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="2">
+      <c r="A21" s="11">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="12">
         <v>15.5</v>
       </c>
-      <c r="H21" s="16">
-        <v>2</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" s="16">
+      <c r="H21" s="12">
+        <v>2</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="12">
         <v>4.5</v>
       </c>
-      <c r="K21" s="16">
-        <v>2</v>
-      </c>
-      <c r="L21" s="16">
+      <c r="K21" s="12">
+        <v>2</v>
+      </c>
+      <c r="L21" s="12">
         <v>4.5</v>
       </c>
-      <c r="M21" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="N21" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="O21" s="18">
-        <v>2</v>
-      </c>
-      <c r="P21" s="18">
+      <c r="M21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O21" s="12">
+        <v>2</v>
+      </c>
+      <c r="P21" s="12">
         <v>15.5</v>
       </c>
-      <c r="Q21" s="16">
+      <c r="Q21" s="12">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="R21" s="17">
+      <c r="R21" s="12">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="2">
+      <c r="A22" s="11">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="12">
         <v>23.5</v>
       </c>
-      <c r="H22" s="16">
-        <v>2</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J22" s="16">
+      <c r="H22" s="12">
+        <v>2</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="12">
         <v>4.5</v>
       </c>
-      <c r="K22" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="L22" s="16">
+      <c r="K22" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="12">
         <v>4.5</v>
       </c>
-      <c r="M22" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="N22" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="O22" s="18">
-        <v>2</v>
-      </c>
-      <c r="P22" s="18">
+      <c r="M22" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22" s="12">
+        <v>2</v>
+      </c>
+      <c r="P22" s="12">
         <v>23.5</v>
       </c>
-      <c r="Q22" s="16">
+      <c r="Q22" s="12">
         <f t="shared" ref="Q22:Q25" si="2">SUM(G22:P22)</f>
         <v>60</v>
       </c>
-      <c r="R22" s="17">
+      <c r="R22" s="12">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="2">
+      <c r="A23" s="11">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="12">
         <v>16</v>
       </c>
-      <c r="H23" s="16">
-        <v>2</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J23" s="16">
+      <c r="H23" s="12">
+        <v>2</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="12">
         <v>4.5</v>
       </c>
-      <c r="K23" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="L23" s="16">
+      <c r="K23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" s="12">
         <v>4.5</v>
       </c>
-      <c r="M23" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="N23" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="O23" s="18">
-        <v>2</v>
-      </c>
-      <c r="P23" s="18">
+      <c r="M23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O23" s="12">
+        <v>2</v>
+      </c>
+      <c r="P23" s="12">
         <v>16</v>
       </c>
-      <c r="Q23" s="18">
+      <c r="Q23" s="12">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="R23" s="17">
+      <c r="R23" s="12">
         <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="2">
+      <c r="A24" s="11">
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="12">
         <v>10</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="12">
         <v>1</v>
       </c>
-      <c r="I24" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J24" s="16">
+      <c r="I24" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" s="12">
         <v>4</v>
       </c>
-      <c r="K24" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="L24" s="16">
+      <c r="K24" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L24" s="12">
         <v>4</v>
       </c>
-      <c r="M24" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="N24" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="O24" s="18">
+      <c r="M24" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O24" s="12">
         <v>1</v>
       </c>
-      <c r="P24" s="18">
+      <c r="P24" s="12">
         <v>10</v>
       </c>
-      <c r="Q24" s="18">
+      <c r="Q24" s="12">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="R24" s="17">
+      <c r="R24" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="2">
+      <c r="A25" s="11">
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="12">
         <v>3</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="12">
         <v>1</v>
       </c>
-      <c r="I25" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J25" s="16">
+      <c r="I25" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" s="12">
         <v>3</v>
       </c>
-      <c r="K25" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="L25" s="16">
+      <c r="K25" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" s="12">
         <v>3</v>
       </c>
-      <c r="M25" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="N25" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="O25" s="18">
+      <c r="M25" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O25" s="12">
         <v>1</v>
       </c>
-      <c r="P25" s="18">
+      <c r="P25" s="12">
         <v>3</v>
       </c>
-      <c r="Q25" s="18">
+      <c r="Q25" s="12">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="R25" s="17">
+      <c r="R25" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="21"/>
+      <c r="A26" s="11">
+        <v>24</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K26" s="12">
+        <v>20</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O26" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P26" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q26" s="12">
+        <f t="shared" ref="Q26" si="3">SUM(G26:P26)</f>
+        <v>20</v>
+      </c>
+      <c r="R26" s="12">
+        <f t="shared" ref="R26" si="4">Q26/2</f>
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R25" xr:uid="{B6359057-24D5-44D3-8539-20CB037E059C}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2476,28 +2325,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="49.33203125" style="24" customWidth="1"/>
-    <col min="3" max="16384" width="9.06640625" style="24"/>
+    <col min="1" max="1" width="2.59765625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9.06640625" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="2" t="s">
         <v>49</v>
       </c>
     </row>

--- a/activity/RoadBuffer/RoadBuffer.xlsx
+++ b/activity/RoadBuffer/RoadBuffer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\RoadBuffer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1EC1EC-6BC4-4648-B264-8CB8F2E2361E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8D051D-797F-499C-A9F2-3E8955BD1758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{012D0033-4953-46FF-8E03-F86034DBFEBC}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PerfilVial!$A$1:$R$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PerfilVial!$A$1:$R$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,6 +58,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{D793CAF5-9C5E-47A5-8DBE-9F224238B667}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tramo no digitalizada en cartografía POT</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="N6" authorId="0" shapeId="0" xr:uid="{7B7ECA58-1099-4712-B96F-3A1FB23D3D4A}">
       <text>
         <r>
@@ -71,6 +84,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{B99680C4-903E-45B7-95B4-1149F6EA4E61}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>No digitalizada en cartografía POT</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -198,9 +224,6 @@
     <t>Vía arterial de doble calzada que permite la comunicación en dos sentidos entre la vía Zipaquirá - Cogua, desde la carrera 7, hasta la avenida de ferrocarril y alameda del zipa a través del suelo de expansión urbana de san rafael.</t>
   </si>
   <si>
-    <t>Vía zonal que articula el acceso y comunicación del suelo de expansión urbana del sector la paz - san rafael - la esmeralda, con el resto de la ciudad, por lo que juega un fundamental papel articulador del desarrollo de esta zona.</t>
-  </si>
-  <si>
     <t>Desde calle 26 hasta carrera 26 (entrada lácteos el recreo)</t>
   </si>
   <si>
@@ -325,13 +348,16 @@
   </si>
   <si>
     <t>Vía férrea</t>
+  </si>
+  <si>
+    <t>Vía zonal que articula el acceso y comunicación del suelo de expansión urbana del sector La Paz - San Rrafael - La Esmeralda, con el resto de la ciudad, por lo que juega un fundamental papel articulador del desarrollo de esta zona.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,6 +387,12 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Segoe UI Light"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -408,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -443,6 +475,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -780,14 +815,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6359057-24D5-44D3-8539-20CB037E059C}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q26" sqref="Q26:R26"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.19921875" style="11" customWidth="1"/>
     <col min="2" max="2" width="28.06640625" style="11" customWidth="1"/>
@@ -799,86 +834,86 @@
     <col min="19" max="16384" width="9.06640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="E1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="I1" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="Q1" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" s="11">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I2" s="12">
         <v>2</v>
@@ -893,16 +928,16 @@
         <v>3.5</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N2" s="12">
         <v>2</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q2" s="12">
         <f>SUM(G2:P2)</f>
@@ -913,12 +948,12 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" ht="82.5" x14ac:dyDescent="0.45">
       <c r="A3" s="11">
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>1</v>
@@ -927,16 +962,16 @@
         <v>2</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I3" s="12">
         <v>6.25</v>
@@ -957,10 +992,10 @@
         <v>6.25</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q3" s="12">
         <f>SUM(G3:P3)</f>
@@ -971,12 +1006,12 @@
         <v>18.25</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" ht="82.5" x14ac:dyDescent="0.45">
       <c r="A4" s="11">
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>4</v>
@@ -991,10 +1026,10 @@
         <v>5</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I4" s="12">
         <v>4</v>
@@ -1015,10 +1050,10 @@
         <v>4</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="12">
         <f>SUM(G4:P4)</f>
@@ -1029,12 +1064,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" ht="66" x14ac:dyDescent="0.45">
       <c r="A5" s="11">
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>6</v>
@@ -1049,10 +1084,10 @@
         <v>38</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" s="12">
         <v>2.4</v>
@@ -1067,16 +1102,16 @@
         <v>7</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N5" s="12">
         <v>12</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="12">
         <f>SUM(G5:P5)</f>
@@ -1087,14 +1122,14 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" ht="66" x14ac:dyDescent="0.45">
       <c r="A6" s="11">
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -1107,10 +1142,10 @@
         <v>7</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I6" s="12">
         <v>2.4</v>
@@ -1125,16 +1160,16 @@
         <v>7</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N6" s="12">
         <v>12</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="12">
         <f t="shared" ref="Q6:Q21" si="1">SUM(G6:P6)</f>
@@ -1145,12 +1180,12 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A7" s="11">
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>8</v>
@@ -1165,10 +1200,10 @@
         <v>5</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I7" s="12">
         <v>2.5</v>
@@ -1183,16 +1218,16 @@
         <v>7</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N7" s="12">
         <v>2.5</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q7" s="12">
         <f t="shared" si="1"/>
@@ -1203,12 +1238,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" s="11">
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>9</v>
@@ -1223,10 +1258,10 @@
         <v>12</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I8" s="12">
         <v>2</v>
@@ -1235,22 +1270,22 @@
         <v>7</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N8" s="12">
         <v>2</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="12">
         <f t="shared" si="1"/>
@@ -1261,12 +1296,12 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" s="11">
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>9</v>
@@ -1281,10 +1316,10 @@
         <v>14</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I9" s="12">
         <v>4.5</v>
@@ -1305,10 +1340,10 @@
         <v>4.3</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="12">
         <f t="shared" si="1"/>
@@ -1319,12 +1354,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" ht="99" x14ac:dyDescent="0.45">
       <c r="A10" s="11">
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>15</v>
@@ -1333,16 +1368,16 @@
         <v>16</v>
       </c>
       <c r="E10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>41</v>
-      </c>
       <c r="G10" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I10" s="12">
         <v>2.5</v>
@@ -1357,16 +1392,16 @@
         <v>7</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N10" s="12">
         <v>2.5</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="12">
         <f t="shared" si="1"/>
@@ -1377,12 +1412,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" s="11">
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>17</v>
@@ -1394,13 +1429,13 @@
         <v>18</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I11" s="12">
         <v>2.25</v>
@@ -1409,22 +1444,22 @@
         <v>3.5</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N11" s="12">
         <v>1.25</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="12">
         <f t="shared" si="1"/>
@@ -1435,12 +1470,12 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" s="11">
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>19</v>
@@ -1455,10 +1490,10 @@
         <v>21</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I12" s="12">
         <v>4.5</v>
@@ -1467,22 +1502,22 @@
         <v>3.5</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L12" s="12">
         <v>3.5</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N12" s="12">
         <v>3</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q12" s="12">
         <f t="shared" si="1"/>
@@ -1493,12 +1528,12 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="11">
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>22</v>
@@ -1513,10 +1548,10 @@
         <v>12</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I13" s="12">
         <v>2</v>
@@ -1525,22 +1560,22 @@
         <v>7</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N13" s="12">
         <v>2</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="12">
         <f t="shared" si="1"/>
@@ -1551,12 +1586,12 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" s="11">
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>22</v>
@@ -1571,10 +1606,10 @@
         <v>14</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I14" s="12">
         <v>2</v>
@@ -1589,16 +1624,16 @@
         <v>7</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N14" s="12">
         <v>2</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="12">
         <f t="shared" si="1"/>
@@ -1609,12 +1644,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" s="11">
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>25</v>
@@ -1629,10 +1664,10 @@
         <v>12</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I15" s="12">
         <v>3</v>
@@ -1653,10 +1688,10 @@
         <v>3</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="12">
         <f t="shared" si="1"/>
@@ -1667,12 +1702,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" s="11">
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>25</v>
@@ -1687,10 +1722,10 @@
         <v>14</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I16" s="12">
         <v>3</v>
@@ -1711,10 +1746,10 @@
         <v>3</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q16" s="12">
         <f t="shared" si="1"/>
@@ -1725,14 +1760,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17" s="11">
         <v>15</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="11" t="s">
@@ -1745,10 +1780,10 @@
         <v>29</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I17" s="12">
         <v>3</v>
@@ -1769,10 +1804,10 @@
         <v>3</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q17" s="12">
         <f t="shared" si="1"/>
@@ -1783,12 +1818,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18" s="11">
         <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>30</v>
@@ -1800,13 +1835,13 @@
         <v>31</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="12">
         <v>4.5</v>
@@ -1827,10 +1862,10 @@
         <v>4.3</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q18" s="12">
         <f t="shared" si="1"/>
@@ -1841,12 +1876,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19" s="11">
         <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>19</v>
@@ -1858,13 +1893,13 @@
         <v>32</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I19" s="12">
         <v>2.5</v>
@@ -1879,16 +1914,16 @@
         <v>7</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N19" s="12">
         <v>2.5</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q19" s="12">
         <f t="shared" si="1"/>
@@ -1899,12 +1934,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A20" s="11">
         <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>33</v>
@@ -1919,10 +1954,10 @@
         <v>35</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I20" s="12">
         <v>4</v>
@@ -1931,22 +1966,22 @@
         <v>6</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N20" s="12">
         <v>4</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q20" s="12">
         <f t="shared" si="1"/>
@@ -1957,24 +1992,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21" s="11">
         <v>19</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>47</v>
-      </c>
       <c r="E21" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" s="12">
         <v>15.5</v>
@@ -1983,7 +2018,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J21" s="12">
         <v>4.5</v>
@@ -1995,10 +2030,10 @@
         <v>4.5</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O21" s="12">
         <v>2</v>
@@ -2015,24 +2050,24 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22" s="11">
         <v>20</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>47</v>
-      </c>
       <c r="E22" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G22" s="12">
         <v>23.5</v>
@@ -2041,22 +2076,22 @@
         <v>2</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J22" s="12">
         <v>4.5</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L22" s="12">
         <v>4.5</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O22" s="12">
         <v>2</v>
@@ -2073,24 +2108,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A23" s="11">
         <v>21</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G23" s="12">
         <v>16</v>
@@ -2099,22 +2134,22 @@
         <v>2</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J23" s="12">
         <v>4.5</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L23" s="12">
         <v>4.5</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O23" s="12">
         <v>2</v>
@@ -2131,24 +2166,24 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A24" s="11">
         <v>22</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G24" s="12">
         <v>10</v>
@@ -2157,22 +2192,22 @@
         <v>1</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J24" s="12">
         <v>4</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L24" s="12">
         <v>4</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O24" s="12">
         <v>1</v>
@@ -2189,24 +2224,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A25" s="11">
         <v>23</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G25" s="12">
         <v>3</v>
@@ -2215,22 +2250,22 @@
         <v>1</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J25" s="12">
         <v>3</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L25" s="12">
         <v>3</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O25" s="12">
         <v>1</v>
@@ -2247,54 +2282,54 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A26" s="11">
         <v>24</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K26" s="12">
         <v>20</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q26" s="12">
         <f t="shared" ref="Q26" si="3">SUM(G26:P26)</f>
@@ -2306,7 +2341,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R25" xr:uid="{B6359057-24D5-44D3-8539-20CB037E059C}"/>
+  <autoFilter ref="A1:R26" xr:uid="{B6359057-24D5-44D3-8539-20CB037E059C}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2332,22 +2367,22 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.6">
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.6">
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.6">
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.6">
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/activity/RoadBuffer/RoadBuffer.xlsx
+++ b/activity/RoadBuffer/RoadBuffer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\RoadBuffer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8D051D-797F-499C-A9F2-3E8955BD1758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5515B9-2A97-41FD-8C02-A1203B587091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{012D0033-4953-46FF-8E03-F86034DBFEBC}"/>
   </bookViews>
@@ -94,6 +94,19 @@
             <family val="2"/>
           </rPr>
           <t>No digitalizada en cartografía POT</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{D0D3E345-E0E9-4E9C-AEBB-2FD43FE9ED66}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>No identificable en capa de vías</t>
         </r>
       </text>
     </comment>
@@ -816,10 +829,10 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20:XFD20"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -2057,7 +2070,7 @@
       <c r="B22" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="13" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="11" t="s">
